--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1752.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1752.xlsx
@@ -354,10 +354,10 @@
         <v>1.308362193569754</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.640829017190387</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1752.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1752.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6670833586152891</v>
+        <v>0.3625542819499969</v>
       </c>
       <c r="B1">
-        <v>1.308362193569754</v>
+        <v>0.6507856845855713</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.37424099445343</v>
       </c>
       <c r="E1">
-        <v>1.640829017190387</v>
+        <v>0.8454117774963379</v>
       </c>
     </row>
   </sheetData>
